--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25209"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo110\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BONUS\MONTHLY INCENTIVE\2022\AmPm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6191DA07-71C8-4CE7-92A9-04CA67D240D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="480" windowWidth="20460" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="59">
   <si>
     <t>date</t>
   </si>
@@ -41,84 +30,192 @@
     <t>time</t>
   </si>
   <si>
-    <t>create am-pm week 16</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>submit am-pm ke aplikasi dnd</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>observasi dan drafting prosedur update harga marketplace</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>like &amp; share postingan medsos cs</t>
-  </si>
-  <si>
-    <t>15:50</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>follow up approval document</t>
-  </si>
-  <si>
-    <t>review document cv complete selular</t>
-  </si>
-  <si>
-    <t>08:35</t>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>Morning Brief</t>
+  </si>
+  <si>
+    <t>Rekap Kartu Sakti Online</t>
+  </si>
+  <si>
+    <t>Cek Evidence Klaim</t>
+  </si>
+  <si>
+    <t>Kolektif Kelengkapan Syarat Klaim</t>
+  </si>
+  <si>
+    <t>Draft Form Estimasi Service</t>
+  </si>
+  <si>
+    <t>Pengisian Kartu &amp; Formulir Klaim Zurich</t>
+  </si>
+  <si>
+    <t>Pengajuan Klaim Zurich Insurance</t>
+  </si>
+  <si>
+    <t>Update Data Klaim &amp; Serahterima Unit Klaim Retur</t>
+  </si>
+  <si>
+    <t>Koordinasi Logistik Penerimaan/Pengiriman Barang</t>
+  </si>
+  <si>
+    <t>Pack &amp; Distribusi NEW Form Zurich Insurance</t>
+  </si>
+  <si>
+    <t>Requestan Alokasi TO Zurich CSA PKP</t>
+  </si>
+  <si>
+    <t>Otorisasi Penjualan Minus Klaim Zurich</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>Requestan Alokasi TO Adira CSA PKP</t>
+  </si>
+  <si>
+    <t>Rekap Data Customer Zurich Juni 2022</t>
+  </si>
+  <si>
+    <t>Cek mail, Update Dashboard Incentive Non Profit</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>Rekap Data Customer Zurich Insurance Juni 2022</t>
+  </si>
+  <si>
+    <t>Monitor Pencairan Program Zurich April</t>
+  </si>
+  <si>
+    <t>Pengajuan Incentive Robby Yulianto</t>
+  </si>
+  <si>
+    <t>Beberesan Incentive Marcomm</t>
+  </si>
+  <si>
+    <t>Perilisan SPK Klaim Pending</t>
+  </si>
+  <si>
+    <t>2022-06-14</t>
+  </si>
+  <si>
+    <t>Cek mail, Draft Payroll Incentive</t>
+  </si>
+  <si>
+    <t>Draft Pemisahan Incentive Grosir (MSIS – CV TOP) &amp; Retail (Mitra – Principal)</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>Update Norek Penerima Incentive</t>
+  </si>
+  <si>
+    <t>Konfirmasi Audit u/ Sales Person Hold Incentive</t>
+  </si>
+  <si>
+    <t>Summary All Incentive, Payroll &amp; Pengajuan Berdasar Badan Usaha</t>
+  </si>
+  <si>
+    <t>Rekap Incentive PIC/Sales Person</t>
+  </si>
+  <si>
+    <t>Monitor Review/Ttd PKS Zurich Pak Yuke</t>
+  </si>
+  <si>
+    <t>Koordinasi Pak Anom proses Input Order Polis Periode Mei 2022</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>revisi prosedur</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>update dan arsip document release</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>13:50</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>2022-04-23</t>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>Monitor Pencairan Incentive &amp; Share All Data</t>
+  </si>
+  <si>
+    <t>Follup Bu Idha Pencairan Support 13th Anniversary CS</t>
+  </si>
+  <si>
+    <t>2022-06-17</t>
+  </si>
+  <si>
+    <t>Monitor Pencairan Program Zurich &amp; Input Bank OA565</t>
+  </si>
+  <si>
+    <t>Follup Bu Shela Data Tagihan Premi April</t>
+  </si>
+  <si>
+    <t>Update Summary Incentive Persales Person &amp; Badan Usaha</t>
+  </si>
+  <si>
+    <t>List Salvage Unit Klaim u/ Tagihan Juni</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>Summary &amp; Pengajuan Donasi Periode Mei – Juni</t>
+  </si>
+  <si>
+    <t>Support Program Bundling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,9 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,297 +549,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>